--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="89">
   <si>
     <t>שנה-חודש</t>
   </si>
@@ -61,6 +61,15 @@
     <t>2025-02</t>
   </si>
   <si>
+    <t>2025-03</t>
+  </si>
+  <si>
+    <t>2025-04</t>
+  </si>
+  <si>
+    <t>2025-05</t>
+  </si>
+  <si>
     <t>סקיולייף-נטלי</t>
   </si>
   <si>
@@ -136,6 +145,21 @@
     <t>הפק.שיק בסלולר</t>
   </si>
   <si>
+    <t>ני"ע-קניה</t>
+  </si>
+  <si>
+    <t>החזרת שיק (תאריך ערך: 05/03)</t>
+  </si>
+  <si>
+    <t>הפקדת שיק חוזר</t>
+  </si>
+  <si>
+    <t>העברה לבנק אחר</t>
+  </si>
+  <si>
+    <t>מסטרקרד</t>
+  </si>
+  <si>
     <t xml:space="preserve">  עבור: מימון שמעון         מזהה 042370734</t>
   </si>
   <si>
@@ -215,6 +239,48 @@
   </si>
   <si>
     <t>לטובת: אריאלה ועופר מימון עבור: אוכל ותיקון שרשרת</t>
+  </si>
+  <si>
+    <t>לטובת: בני ועמית מימון עבור: תשלום מעיל</t>
+  </si>
+  <si>
+    <t>לטובת: SACHIN CHANDRAPPA עבור: salary payment</t>
+  </si>
+  <si>
+    <t>לטובת: אריאלה ועופר מימון עבור: קייטרינג 2 ,סופר,,קומקום</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> סיבת החזרה:  שגיאה בהקלדת פרטי חשבון המושך או ב</t>
+  </si>
+  <si>
+    <t>לטובת: SACHIN CHANDRAPPA עבור: salary of February 2025</t>
+  </si>
+  <si>
+    <t>לטובת: סוצקבר אלכסנדר עבור: תשלום גריאטר בדיקה אמא</t>
+  </si>
+  <si>
+    <t>לטובת: שרית ושמעון אטרף עבור: העברה של ביטחונות לבת שלי</t>
+  </si>
+  <si>
+    <t>לטובת: אריאלה ועופר מימון עבור: העברה של ביטחונות בן עופר</t>
+  </si>
+  <si>
+    <t>לטובת: בני ועמית מימון עבור: אמא  לתשלום שכירות</t>
+  </si>
+  <si>
+    <t>לטובת: אנשים תמיד עבור: הרשמה ודמי תאגיד 3 חודשי</t>
+  </si>
+  <si>
+    <t>לטובת: SACHIN CHANDRAPPA עבור: salary March</t>
+  </si>
+  <si>
+    <t>לטובת: בורקין מצבה בע"מ עבור: מצבה לאבא</t>
+  </si>
+  <si>
+    <t>לטובת: אסתר ביטון עבור: קייטרינג לאזכרה חודש</t>
+  </si>
+  <si>
+    <t>לטובת: SACHIN CHANDRAPPA עבור: salary 5 and obligations</t>
   </si>
 </sst>
 </file>
@@ -572,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +666,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>25</v>
@@ -611,13 +677,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,13 +691,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>2531</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -639,13 +705,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>3581</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -653,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>97.13</v>
@@ -664,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>7033.45</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -678,7 +744,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>4201.39</v>
@@ -689,7 +755,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1.75</v>
@@ -700,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -711,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>3000</v>
@@ -722,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>181.19</v>
@@ -733,7 +799,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>206.66</v>
@@ -744,7 +810,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>3300</v>
@@ -755,7 +821,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>25</v>
@@ -766,13 +832,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>475</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -780,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>24.47</v>
@@ -791,13 +857,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>2531</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -805,13 +871,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>3581</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -819,13 +885,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>2000</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -833,13 +899,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>9448.09</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -847,7 +913,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>4637.9</v>
@@ -858,13 +924,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>1080</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>2500</v>
@@ -883,7 +949,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>3.5</v>
@@ -894,7 +960,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -905,13 +971,13 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>766</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -919,13 +985,13 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>248</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -933,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>209.9</v>
@@ -944,13 +1010,13 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>1425</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -958,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>25</v>
@@ -969,7 +1035,7 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>151.94</v>
@@ -980,13 +1046,13 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D33">
         <v>2531</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -994,13 +1060,13 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D34">
         <v>3581</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1008,13 +1074,13 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D35">
         <v>7665.78</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1022,7 +1088,7 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C36">
         <v>3121.94</v>
@@ -1033,7 +1099,7 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C37">
         <v>3.5</v>
@@ -1044,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -1055,13 +1121,13 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C39">
         <v>332</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,7 +1135,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>248.92</v>
@@ -1080,13 +1146,13 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D41">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1094,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>3000</v>
@@ -1105,13 +1171,13 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C43">
         <v>1366</v>
       </c>
       <c r="E43" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1119,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C44">
         <v>25</v>
@@ -1130,7 +1196,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C45">
         <v>24.71</v>
@@ -1141,13 +1207,13 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D46">
         <v>1886</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1155,13 +1221,13 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D47">
         <v>2531</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1169,13 +1235,13 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D48">
         <v>3326</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1183,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D49">
         <v>7665.78</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1197,13 +1263,13 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C50">
         <v>962</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1211,7 +1277,7 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C51">
         <v>5464.23</v>
@@ -1222,7 +1288,7 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D52">
         <v>1346.56</v>
@@ -1233,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D53">
         <v>50000</v>
@@ -1244,7 +1310,7 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C54">
         <v>25</v>
@@ -1255,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C55">
         <v>3.5</v>
@@ -1266,7 +1332,7 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C56">
         <v>10</v>
@@ -1277,13 +1343,13 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D57">
         <v>237.62</v>
       </c>
       <c r="E57" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1291,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>9</v>
@@ -1302,13 +1368,13 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C59">
         <v>2139</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1316,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C60">
         <v>1200</v>
@@ -1327,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>25</v>
@@ -1338,13 +1404,13 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C62">
         <v>60000</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1352,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C63">
         <v>470.3</v>
@@ -1363,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C64">
         <v>5300</v>
@@ -1374,7 +1440,7 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D65">
         <v>2493.33</v>
@@ -1385,7 +1451,7 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D66">
         <v>110000</v>
@@ -1396,13 +1462,13 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D67">
         <v>2249</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1410,13 +1476,13 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D68">
         <v>2531</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1424,13 +1490,13 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D69">
         <v>3581</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1438,7 +1504,7 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C70">
         <v>130000</v>
@@ -1449,7 +1515,7 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C71">
         <v>3000</v>
@@ -1460,7 +1526,7 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C72">
         <v>458.89</v>
@@ -1471,13 +1537,13 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D73">
         <v>7665.78</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1485,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C74">
         <v>4565.59</v>
@@ -1496,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C75">
         <v>8.75</v>
@@ -1507,7 +1573,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C76">
         <v>10</v>
@@ -1518,13 +1584,13 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C77">
         <v>386</v>
       </c>
       <c r="E77" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1532,13 +1598,13 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C78">
         <v>296</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1546,13 +1612,13 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C79">
         <v>3632</v>
       </c>
       <c r="E79" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1560,13 +1626,13 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D80">
         <v>439.99</v>
       </c>
       <c r="E80" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1574,13 +1640,13 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D81">
         <v>700</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1588,7 +1654,7 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C82">
         <v>1000</v>
@@ -1599,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C83">
         <v>1100</v>
@@ -1610,7 +1676,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C84">
         <v>25</v>
@@ -1621,7 +1687,7 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C85">
         <v>24.54</v>
@@ -1632,13 +1698,13 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D86">
         <v>2249</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1646,13 +1712,13 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D87">
         <v>2531</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1660,13 +1726,13 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D88">
         <v>3581</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1674,13 +1740,13 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D89">
         <v>7665.78</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1688,7 +1754,7 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C90">
         <v>5300</v>
@@ -1699,7 +1765,7 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C91">
         <v>3578.9</v>
@@ -1710,7 +1776,7 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D92">
         <v>45391.89</v>
@@ -1721,7 +1787,7 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C93">
         <v>3.5</v>
@@ -1732,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C94">
         <v>10</v>
@@ -1743,7 +1809,7 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D95">
         <v>3200</v>
@@ -1754,13 +1820,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C96">
         <v>260</v>
       </c>
       <c r="E96" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -1768,13 +1834,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C97">
         <v>300</v>
       </c>
       <c r="E97" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -1782,13 +1848,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C98">
         <v>310</v>
       </c>
       <c r="E98" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -1796,7 +1862,7 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C99">
         <v>60000</v>
@@ -1807,13 +1873,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D100">
         <v>245.62</v>
       </c>
       <c r="E100" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -1821,7 +1887,7 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C101">
         <v>1500</v>
@@ -1832,13 +1898,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C102">
         <v>3482</v>
       </c>
       <c r="E102" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -1846,7 +1912,7 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C103">
         <v>1100</v>
@@ -1857,7 +1923,7 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C104">
         <v>25</v>
@@ -1868,7 +1934,7 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C105">
         <v>212.33</v>
@@ -1879,13 +1945,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D106">
         <v>2249</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -1893,13 +1959,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D107">
         <v>2531</v>
       </c>
       <c r="E107" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -1907,13 +1973,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D108">
         <v>3581</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -1921,13 +1987,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D109">
         <v>7665.78</v>
       </c>
       <c r="E109" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -1935,7 +2001,7 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C110">
         <v>5300</v>
@@ -1946,7 +2012,7 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C111">
         <v>5102.22</v>
@@ -1957,13 +2023,13 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C112">
         <v>821</v>
       </c>
       <c r="E112" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -1971,7 +2037,7 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C113">
         <v>8.75</v>
@@ -1982,7 +2048,7 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C114">
         <v>10</v>
@@ -1993,7 +2059,7 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C115">
         <v>1500</v>
@@ -2004,13 +2070,13 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C116">
         <v>271</v>
       </c>
       <c r="E116" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2018,7 +2084,7 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D117">
         <v>3200</v>
@@ -2029,13 +2095,13 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C118">
         <v>4484</v>
       </c>
       <c r="E118" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2043,7 +2109,7 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C119">
         <v>1100</v>
@@ -2054,7 +2120,7 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C120">
         <v>25</v>
@@ -2065,13 +2131,13 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D121">
         <v>3660</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2079,13 +2145,13 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D122">
         <v>580</v>
       </c>
       <c r="E122" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2093,7 +2159,7 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C123">
         <v>24.43</v>
@@ -2104,13 +2170,13 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D124">
         <v>2249</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2118,13 +2184,13 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D125">
         <v>2531</v>
       </c>
       <c r="E125" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2132,13 +2198,13 @@
         <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D126">
         <v>3581</v>
       </c>
       <c r="E126" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2146,13 +2212,13 @@
         <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D127">
         <v>7665.78</v>
       </c>
       <c r="E127" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2160,7 +2226,7 @@
         <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C128">
         <v>5300</v>
@@ -2171,7 +2237,7 @@
         <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C129">
         <v>4892.72</v>
@@ -2182,7 +2248,7 @@
         <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C130">
         <v>8.75</v>
@@ -2193,7 +2259,7 @@
         <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C131">
         <v>10</v>
@@ -2204,7 +2270,7 @@
         <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D132">
         <v>3200</v>
@@ -2215,13 +2281,13 @@
         <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C133">
         <v>457</v>
       </c>
       <c r="E133" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2229,13 +2295,13 @@
         <v>13</v>
       </c>
       <c r="B134" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C134">
         <v>3454</v>
       </c>
       <c r="E134" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2243,7 +2309,7 @@
         <v>13</v>
       </c>
       <c r="B135" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C135">
         <v>1500</v>
@@ -2254,7 +2320,7 @@
         <v>13</v>
       </c>
       <c r="B136" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C136">
         <v>1100</v>
@@ -2265,7 +2331,7 @@
         <v>13</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C137">
         <v>25</v>
@@ -2276,13 +2342,13 @@
         <v>13</v>
       </c>
       <c r="B138" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D138">
         <v>2249</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2290,13 +2356,13 @@
         <v>13</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D139">
         <v>2616</v>
       </c>
       <c r="E139" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2304,13 +2370,13 @@
         <v>13</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D140">
         <v>3801</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2318,13 +2384,13 @@
         <v>13</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D141">
         <v>12860.88</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2332,7 +2398,7 @@
         <v>14</v>
       </c>
       <c r="B142" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C142">
         <v>5073.62</v>
@@ -2343,7 +2409,7 @@
         <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D143">
         <v>261687.71</v>
@@ -2354,7 +2420,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C144">
         <v>1500</v>
@@ -2365,7 +2431,7 @@
         <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C145">
         <v>5300</v>
@@ -2376,7 +2442,7 @@
         <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C146">
         <v>1.75</v>
@@ -2387,7 +2453,7 @@
         <v>14</v>
       </c>
       <c r="B147" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C147">
         <v>10</v>
@@ -2398,7 +2464,7 @@
         <v>14</v>
       </c>
       <c r="B148" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D148">
         <v>3200</v>
@@ -2409,13 +2475,13 @@
         <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D149">
         <v>38</v>
       </c>
       <c r="E149" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2423,13 +2489,13 @@
         <v>14</v>
       </c>
       <c r="B150" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C150">
         <v>383</v>
       </c>
       <c r="E150" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2437,13 +2503,832 @@
         <v>14</v>
       </c>
       <c r="B151" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D151">
         <v>2062.53</v>
       </c>
       <c r="E151" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152">
+        <v>249</v>
+      </c>
+      <c r="E152" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" t="s">
+        <v>29</v>
+      </c>
+      <c r="C153">
+        <v>3738</v>
+      </c>
+      <c r="E153" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154">
+        <v>534.34</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" t="s">
+        <v>43</v>
+      </c>
+      <c r="C155">
+        <v>272049.93</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156">
+        <v>2528</v>
+      </c>
+      <c r="E156" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" t="s">
+        <v>40</v>
+      </c>
+      <c r="C158">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159">
+        <v>48.93</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" t="s">
+        <v>38</v>
+      </c>
+      <c r="D160">
+        <v>2287</v>
+      </c>
+      <c r="E160" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161">
+        <v>2616</v>
+      </c>
+      <c r="E161" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162">
+        <v>3801</v>
+      </c>
+      <c r="E162" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="D163">
+        <v>7587.88</v>
+      </c>
+      <c r="E163" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" t="s">
+        <v>37</v>
+      </c>
+      <c r="C164">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165">
+        <v>4093.57</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" t="s">
+        <v>29</v>
+      </c>
+      <c r="C166">
+        <v>1001</v>
+      </c>
+      <c r="E166" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" t="s">
+        <v>25</v>
+      </c>
+      <c r="C168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" t="s">
+        <v>42</v>
+      </c>
+      <c r="D169">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" t="s">
+        <v>44</v>
+      </c>
+      <c r="C170">
+        <v>3200</v>
+      </c>
+      <c r="E170" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" t="s">
+        <v>45</v>
+      </c>
+      <c r="D171">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" t="s">
+        <v>29</v>
+      </c>
+      <c r="C172">
+        <v>4064</v>
+      </c>
+      <c r="E172" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" t="s">
+        <v>40</v>
+      </c>
+      <c r="C174">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" t="s">
+        <v>29</v>
+      </c>
+      <c r="C176">
+        <v>1800</v>
+      </c>
+      <c r="E176" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177" t="s">
+        <v>29</v>
+      </c>
+      <c r="C177">
+        <v>10000</v>
+      </c>
+      <c r="E177" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" t="s">
+        <v>38</v>
+      </c>
+      <c r="D178">
+        <v>2287</v>
+      </c>
+      <c r="E178" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" t="s">
+        <v>20</v>
+      </c>
+      <c r="D179">
+        <v>2616</v>
+      </c>
+      <c r="E179" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" t="s">
+        <v>20</v>
+      </c>
+      <c r="D180">
+        <v>3801</v>
+      </c>
+      <c r="E180" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" t="s">
+        <v>26</v>
+      </c>
+      <c r="C181">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" t="s">
+        <v>29</v>
+      </c>
+      <c r="C182">
+        <v>20000</v>
+      </c>
+      <c r="E182" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" t="s">
+        <v>26</v>
+      </c>
+      <c r="C183">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" t="s">
+        <v>32</v>
+      </c>
+      <c r="D184">
+        <v>1279.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" t="s">
+        <v>33</v>
+      </c>
+      <c r="D185">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186">
+        <v>5300</v>
+      </c>
+      <c r="E186" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D187">
+        <v>7587.88</v>
+      </c>
+      <c r="E187" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" t="s">
+        <v>37</v>
+      </c>
+      <c r="C188">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>16</v>
+      </c>
+      <c r="B189" t="s">
+        <v>23</v>
+      </c>
+      <c r="C189">
+        <v>6955.73</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" t="s">
+        <v>29</v>
+      </c>
+      <c r="C190">
+        <v>1010</v>
+      </c>
+      <c r="E190" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>16</v>
+      </c>
+      <c r="B191" t="s">
+        <v>31</v>
+      </c>
+      <c r="D191">
+        <v>460</v>
+      </c>
+      <c r="E191" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>16</v>
+      </c>
+      <c r="B192" t="s">
+        <v>24</v>
+      </c>
+      <c r="C192">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>16</v>
+      </c>
+      <c r="B193" t="s">
+        <v>25</v>
+      </c>
+      <c r="C193">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>16</v>
+      </c>
+      <c r="B194" t="s">
+        <v>34</v>
+      </c>
+      <c r="D194">
+        <v>225.79</v>
+      </c>
+      <c r="E194" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>16</v>
+      </c>
+      <c r="B195" t="s">
+        <v>42</v>
+      </c>
+      <c r="D195">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>16</v>
+      </c>
+      <c r="B196" t="s">
+        <v>27</v>
+      </c>
+      <c r="C196">
+        <v>835.01</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>16</v>
+      </c>
+      <c r="B197" t="s">
+        <v>29</v>
+      </c>
+      <c r="C197">
+        <v>3542</v>
+      </c>
+      <c r="E197" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>16</v>
+      </c>
+      <c r="B198" t="s">
+        <v>46</v>
+      </c>
+      <c r="C198">
+        <v>10500</v>
+      </c>
+      <c r="E198" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>16</v>
+      </c>
+      <c r="B199" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199">
+        <v>1422</v>
+      </c>
+      <c r="E199" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>16</v>
+      </c>
+      <c r="B200" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200">
+        <v>10268</v>
+      </c>
+      <c r="E200" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>16</v>
+      </c>
+      <c r="B201" t="s">
+        <v>40</v>
+      </c>
+      <c r="C201">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>16</v>
+      </c>
+      <c r="B202" t="s">
+        <v>18</v>
+      </c>
+      <c r="C202">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>16</v>
+      </c>
+      <c r="B203" t="s">
+        <v>29</v>
+      </c>
+      <c r="C203">
+        <v>2700</v>
+      </c>
+      <c r="E203" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>16</v>
+      </c>
+      <c r="B204" t="s">
+        <v>30</v>
+      </c>
+      <c r="C204">
+        <v>49.16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>16</v>
+      </c>
+      <c r="B205" t="s">
+        <v>38</v>
+      </c>
+      <c r="D205">
+        <v>2413</v>
+      </c>
+      <c r="E205" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>16</v>
+      </c>
+      <c r="B206" t="s">
+        <v>20</v>
+      </c>
+      <c r="D206">
+        <v>2385</v>
+      </c>
+      <c r="E206" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>17</v>
+      </c>
+      <c r="B207" t="s">
+        <v>37</v>
+      </c>
+      <c r="C207">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" t="s">
+        <v>47</v>
+      </c>
+      <c r="C208">
+        <v>267.38</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" t="s">
+        <v>23</v>
+      </c>
+      <c r="C209">
+        <v>195.31</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" t="s">
+        <v>24</v>
+      </c>
+      <c r="C210">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" t="s">
+        <v>25</v>
+      </c>
+      <c r="C211">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>17</v>
+      </c>
+      <c r="B212" t="s">
+        <v>42</v>
+      </c>
+      <c r="D212">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213" t="s">
+        <v>29</v>
+      </c>
+      <c r="C213">
+        <v>8519</v>
+      </c>
+      <c r="E213" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214" t="s">
+        <v>40</v>
+      </c>
+      <c r="C214">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>17</v>
+      </c>
+      <c r="B215" t="s">
+        <v>18</v>
+      </c>
+      <c r="C215">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>17</v>
+      </c>
+      <c r="B216" t="s">
+        <v>20</v>
+      </c>
+      <c r="D216">
+        <v>1422</v>
+      </c>
+      <c r="E216" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>17</v>
+      </c>
+      <c r="B217" t="s">
+        <v>20</v>
+      </c>
+      <c r="D217">
+        <v>2385</v>
+      </c>
+      <c r="E217" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
